--- a/data/sales_rep_info.xlsx
+++ b/data/sales_rep_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA2581F-2D45-F544-8F8A-75F2A96C2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4155C52-3729-534D-BF7B-A4D225F9188F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{43293746-559B-5848-A20E-08C0FFA62983}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,12 +49,6 @@
     <t>Arun</t>
   </si>
   <si>
-    <t>Venkatesh</t>
-  </si>
-  <si>
-    <t>Surveshwer</t>
-  </si>
-  <si>
     <t>Beed</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Anil</t>
   </si>
   <si>
-    <t>Asha</t>
-  </si>
-  <si>
     <t>Balaji</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>Godavari</t>
   </si>
   <si>
-    <t>Sri Laxmi Venkatesh</t>
-  </si>
-  <si>
     <t>Parbhani</t>
   </si>
   <si>
@@ -128,6 +116,18 @@
   </si>
   <si>
     <t>Shivkrupa</t>
+  </si>
+  <si>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>Aasha</t>
+  </si>
+  <si>
+    <t>Vankatesh</t>
+  </si>
+  <si>
+    <t>Surveshawar</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -585,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -646,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -657,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -679,10 +679,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -690,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -701,10 +701,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,10 +712,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -723,10 +723,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,10 +745,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,10 +756,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -789,10 +789,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
